--- a/500all/speech_level/speeches_CHRG-114hhrg97778.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97778.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412213</t>
   </si>
   <si>
-    <t>Tim Walberg</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Walberg. Good morning. It is sure quiet in the room. After running up two flights of stairs, let me get my wind back here.    A quorum being present, the subcommittee will come to order. Good morning. I would like to thank you all for joining us today, and thank our witnesses for being here with us to share their experiences and perspectives.    The end of the year is an important time to reflect on what has been accomplished and what work remains to be done. As members of the Education and the Workforce Committee, this is especially important as we consider the significant challenges many workers continue to face.    Recent months have shown signs of economic improvement and signs of continued concern, both. Roughly 8 million Americans are still unemployed and searching for work, and an additional 6 million are working part-time hours when they really need and want full-time jobs. That does not include the millions of individuals who are so discouraged by meager job prospects that they have simply dropped out of the workforce entirely.    Meanwhile, those with jobs are facing fewer opportunities to advance and earn higher wages. Some will say the problems facing workers and job creators can be solved with more spending, more Government mandates, and more regulation. Perhaps we will hear some of those claims today, but that is the same failed approach that the Obama administration has pursued over the last seven years.    The results have been an anemic economy, sluggish job growth, and most importantly, less opportunity and prosperity for millions of hard working men and women.    Time and again, we have called on the administration, including those at OSHA and the Department of Labor more broadly, to pursue a different, more responsible course, and time and again, our calls have been rebuffed.    The most recent example was the release of the administration's regulatory agenda, which doubles down on the same extreme regulatory approach that has made the problems plaguing the country worse at the expense of those struggling the most.    Let me be clear. Federal policies do play an important role in ensuring safe and healthy workplaces and protecting the basic rights of hard working men and women. That is not what we are here to discuss today.    The question is not whether there should be rules of the road for workers and employers to follow. The question is how we ensure those rules are implemented fairly, responsibly, and in a way that promotes the best interests of both workers and their employers.    Unfortunately, more often than not, what we have seen from this administration is an overly punitive and unnecessarily burdensome approach. Adding insult to injury, often these rules and regulations are being developed and changed without any public input. This regulatory approach is holding us back, and that is the focus of today's hearing.    We know there are areas where we can make meaningful change without creating costly consequences and unintended harm. For example, Chairman Kline and I have said we are open to modernizing current overtime rules to strengthen protections for workers and help employers fulfill their legal responsibilities.    Instead, we have had to confront a proposal that will limit workplace flexibility, make it harder for workers to advance up the economic ladder, and impose a significant burden on small businesses.    Earlier this year, Nicole Berberich, director of human resources at the Cincinnati Animal Referral and Emergency Center, testified in front of this subcommittee about the challenges employers are already facing because of complicated federal wage and hour regulations. She also explained that small businesses like the one she works for are likely to experience the burdens of these regulations disproportionately. She added that those burdens will continue to worsen with the expected overtime changes.    At a separate hearing before this same subcommittee, Eric Williams, who worked his way up from crew member at a fast food restaurant to become a franchise and chief operating officer at CKE Restaurants, shared his fears that the administration's overtime proposal, and I quote, ``will severely limit hard working, talented Americans from realizing their dreams,'' as he dreamed and realized. He worries that because of the proposal, some employees, and I quote, ``may never reach their full potential.'' That is a shame.    The overtime proposal is just one example of this administration's misguided approach to regulating. At another hearing, Drew Greenblatt, a steel wire manufacturer from Baltimore, spoke to us about how Government policies are hindering growth and how he and others in his industry find themselves stuck between a rock and a hard place.    He explained the situation as between, and I quote, ``A rock of harsh and unforgiving global economic competition and a hard place of inflexible and ever proliferating regulations.''    It should be clear to anyone who is listening that the current regulatory onslaught is making life harder for working families and small business owners, not better.    According to a study commissioned by the National Association of Manufacturers, federal regulations cost more than $2 trillion in lost economic growth annually, and the American Action Forum estimates that the administration imposed more than $181 billion in new regulatory costs during 2014 alone. These are staggering statistics that in many ways represent lost wages and fewer jobs for American workers.    Today, we will hear from our witnesses how this unprecedented regulatory approach has created troubling concerns for workers and small businesses during the past year. My hope is that by demanding more responsible regulatory policies we can ensure a prosperous 21st century workplace.    With that, I will now recognize my Ranking Member, Ms. Wilson, for her opening remarks.</t>
   </si>
   <si>
@@ -67,36 +64,24 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Batkins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Batkins. Thank you, Chairman Walberg, members of the Committee. Thank you for the opportunity to appear today.    In this testimony, I wish to highlight the following points: first, by virtually any metric, regulatory activity has increased across the federal government, from the 100 major rules issues in 2010 to the more than $100 billion in new annual regulatory costs. These new measures will affect employment.    Second, there is a general consensus that regulations have statistically significant but small effects on industry employment. The American Action Forum's work has found that $1 billion in new annual regulatory costs could cut industry employment by 3.6 percent, and third, even federal agencies routinely acknowledge the impact of regulations on employment.    From 2012 to present, 22 rules have conceded they could negatively impact employment, resulting in nearly 86,000 lost jobs.    Regulatory activity has undoubtedly increased in recent years. The paperwork burden, the number of major rules, and monetized regulatory costs, have all trended upward. What does this mean for employment?    We know there are more regulatory compliance officers now than ever before, approximately 246,000. As the regulatory burden grows, so, too, does demand on businesses, to shift employees from profit making endeavors to compliance.    A 2013 Minneapolis Fed study emphasized paperwork burdens and what being forced to hire additional compliance staff means for small banks. The study found that hiring two additional compliance officers reduced profitability by roughly half a percent, and that one-third of the banks studied would become unprofitable if forced to hire additional compliance officers.    For regulatory costs, EPA and the Department of Energy alone have added $39 billion in new annual burdens since 2009. For employees in fossil fuel power plants, these costs are one leading factor to a 28 percent decline in industry employment since 2008.    There are other factors in play but regulation has definitely made its mark. According to the most recent literature, regulation has a modest but significant impact on industry employment.    In one seminal study, Professor Michael Greenstone examined how employment in pollution intensive industries in non-attainment ozone counties differed from attainment counties. The results were dramatic. Non-attainment counties, those with more stringent EPA controls, lost 590,000 jobs, $37 billion in capital, and $75 billion in output.    Dr. Richard Morgenstern, whose work is often cited in regulatory impact analyses, summarizes the intersection of regulation and employment writing, ``there is only limited evidence that environmental regulation leads to significant job loss.'' Note, he did not say there is evidence environmental regulation leads to major job gains.    The American Action Forum's work found that for every $1 billion increase in regulations, industry employment declines by 3.6 percent.    More important than a top line number, however, is the human element to regulation. Even if a rule leads to a net zero impact on aggregate employment but results in thousands of job transfers, there still might be individual job losses and stagnant wages.    For instance, research has found job displacement can lead to a 15 to 20 percent increase in death rates in the 20 years following displacement. This should not be discounted by regulators or policymakers.    Finally, regulatory agencies need to perform more employment impact analyses. Rutgers University Professor Stuart Shapiro examined a regulatory impact analysis of 56 major rules and found that just 11 quantified the rules' impact on employment. On rules since 2012 that had discussed the impact on employment, the American Action Forum found 22 admitted some job losses were possible, including 11 to date in 2015.    As the Department of Energy once conceded, ``it is possible small manufacturers will choose to leave the industry or choose to be purchased by or merged with larger market players.''    Likewise, a Department of Labor rule admitted its implications would result in a dead weight loss and dis-employ roughly 1,000 workers annually. The combined employment loss from the 22 rules, according to agency estimates, could top 85,000 workers.    Based on the research from Professors Eric Posner and Jonathan Masur, the cost of an individual job displacement is $100,000. If we take this 85,000 jobs figure at face value, it means $8.5 billion in costs, human costs, a human toll from regulation.    The proposed overtime expansions, the fiduciary rulemaking, and redefining the joint employer rule could add to these significant totals.    In conclusion, the general consensus is regulation does have an effect on employment, at least at the industry level. More research is needed in this field, and agencies, OIRA, and independent parties should work to perform more rigorous analysis on the intersection of regulation and employment.    Thank you for your time, and I look forward to answering your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Walberg. Thank you. Now, I recognize Mr. Beebe, and thank you for being here, taking time away from your business to join us and give us your experience.</t>
   </si>
   <si>
-    <t>Beebe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Beebe. My pleasure. Good morning, Chairman Walberg, Ranking Member Pocan, and members of the Committee. I am pleased to be here on behalf of the National Federation of Independent Business. I am one of the owners of Highland Engineering, and have been a member of NFIB since 1993. I also currently serve on the NFIB Michigan Leadership Council.    Thank you for holding today's hearing on how the administration's regulatory onslaught is affecting workers and job creators.    The current regulatory framework negatively impacts small and closely held businesses in several important ways, so I appreciate the invitation to be here today to discuss these important issues.    The NFIB is the nation's leading small business advocacy organization. As part of representing small business owners, NFIB frequently conducts surveys of both the NFIB membership and the small business population as a whole.    Government regulation consistently ranks as one of the greatest concerns. In fact, since January 2009, government requirements and red tape have been a top three problem for small business owners on NFIB's monthly small business surveys.    In the administration's fall 2015 regulatory agenda released on November 18, there are 3,297 federal regulations in the pipeline waiting to be proposed, finalized, or implemented. About 10 new regulations are finalized every day, according to data on Regulations.gov, adding to the volumes of rules with which small business owners must comply. This constant onslaught of government regulation makes it incredibly difficult for me to operate my day-to-day business.    I would like to spend the rest of my time telling you about my personal experience dealing with government regulations. Highland Engineering was founded in 1986 and we moved to Howell in 1987. We specialize primarily in troop support equipment for the U.S. Department of Defense, as well as some other agencies. With 45 full-time employees, we are a contractor for all branches of the DOD, FEMA, and foreign militaries.    In addition to our government work, we also serve commercial customers in the automation and water treatment areas.    Through our company's nearly 30 year history, I have seen the impact of the direct costs of excessive regulations, particularly in the past four years. For example, the number of clauses in our contracts have increased nearly 50 percent since 2011. Additionally, reporting requirements have increased to the point that they have become overbearing.    Keeping up with these ever changing regulations is such a task that I have had to hire a professional compliance officer, who also happens to be my wife, Sally, to work 10 to 20 hours per week solely to make sure we are abiding by complex, uncertain, and ever changing regulations.    Each time a new regulation comes out, she has to research it, decide if it pertains to us, and if it does pertain to us, figure out what we need to do about it.    The pace of changes in regulations is astounding. In October of 2011, the Federal Acquisition Regulation or FAR, was on Revision 44. By October 2015, it is now on Revision 84. With this current pace of excessive regulation by the administration, more and more small businesses will either have to divert their monies to hiring compliance personnel, as we did, or will simply decide the burden is too great and get away from the over regulation by dissolving their businesses.    Further, the companies still doing business with the government are passing on these increased costs to the taxpayers instead of being able to use this money to invest in the company's development or to hire new employees. We have had to focus on understanding and complying with new regulations.    Further, in my experience with the Department of Labor, I have found the agency to be more interested in trying to find what we did wrong instead of providing assistance and education in understanding new rules.    My company set up an employee stock ownership plan as a way to take care of our employees and provide for their retirements. We hired lawyers to make sure we understood the process and that we did it right. After the plan was filed with DOL, DOL determined that they needed to audit us. After 17 months of what we thought was nothing more than a phishing expedition, they determined that we did everything 100 percent correct. Those 17 months cost us a lot of time and money.    Highland Engineering's business is primarily with government agencies, and we have seen firsthand the detrimental effects of ever changing and excessive regulations, especially as a small business with limited resources, resources that we could be using to more fully support our core mission, which is supporting the warfighters.    The current state of government regulation has become a confusing and unpredictable challenge for the vast majority of small business owners. Government regulations should not hinder the ability of small business owners to create or expand their business. The current pace of new regulations combined with the existing regulatory burden can dictate the business decisions an owner must make, whether it means using a compliance officer, attempting to expand its business, or hiring new employees.    As Congress examines the current regulatory burden faced by small business owners, I would encourage you to keep the following goals in mind: number one, agencies should take into account a proposed regulation's indirect economic impact on small business. Two, agencies should increase compliance assistance so small businesses acting in good faith can continue to operate without fear of undue penalties, and three, DOL and all agencies should be required to conduct SBIR panels when considering any new regulation.    Working toward these goals would create a more stable pro-growth environment for small businesses.    Thanks again for having me today, and I will be happy to answer any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Walberg. Thank you. Ms. Owens, we welcome you, thank you for being here. We now recognize you for five minutes.</t>
   </si>
   <si>
-    <t>Owens</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Owens. Thank you very much, Chairman Walberg, Mr. Pocan, and members of the subcommittee. I appreciate the opportunity to testify today on behalf of my organization, the National Employment Law Project, which engages in a number of activities designed to promote the interests and rights of low wage and unemployed workers.    The Obama administration has proposed or taken several executive regulatory and other agency actions essential to workers' ability to earn decent wages, meet responsibilities on the job and at home, and work in safe, healthy, and non-discriminatory workplaces. These actions have been thoughtful, informed, fair and balanced, and consistent with legal authority and legal responsibilities to further underlying workforce policy goals.    Far from causing harm, they make it more likely that we will rebuild the economy on a foundation of good jobs and safe and healthy workplaces.    Regulatory and related action by the Obama administration is extremely important. Wages for most workers have fallen over most of the last four decades, even as worker productivity grew, and the average age and education of the workforce rose. The Great Recession exacerbated these trends, particularly for low wage workers.    During the period of limited congressional action on workforce policy, administration action is a vital response to the wage crisis. It also better aligns workforce policy with today's economy and its evolving business and employment practices and family needs.    Several actions update old standards that because they have not been adjusted regularly neither meet the needs of today's workers nor serve employers effectively.    Contrary to arguments that workforce regulations are burdensome and costly job killers, analyses of regulations over a multi-year period find their benefits vastly exceed costs, while cost estimates typically fail to consider mitigating savings, and actual costs often turn out to be significantly lower than estimated.    Less than three-tenths of 1 percent of employers initiating mass layoffs in 2012 said government regulation was their layoff reason, affecting only five of every 2,000 laid-off employees.    A 2014 analysis of 10 proposed or final public health and safety rules, including OSHA's proposed silica rule, concluded they would save 10,000 lives, prevent 300,000 cases of occupational illness or injury, and yield a net overall benefit of as much as $122 billion. Frankly, 69 months of record uninterrupted job growth along with cutting the unemployment rate in half is wholly inconsistent with the notion that a regulatory onslaught has damaged the economy or cost us jobs.    In the face of extreme inequality, stagnant and declining wages, and inadequate labor markets, the Obama administration has acted judiciously and lawfully to help ensure that Americans who work for a living will make a decent living from work in safe, healthy, and non-discriminatory workplaces.    I will now briefly describe a couple of these initiatives. The Labor Department moved to revitalize the Fair Labor Standards Act and strengthen the middle class this July, when after a period of substantial outreach and sustained deliberation it proposed a rule updating the so-called ``white collar exemption'' to the overtime pay requirement.    Recognizing that the existing poverty level threshold of $23,660 is far too low, the Department proposed to lift it to a far more realistic level of $50,440. This change will benefit as many as 11 million workers and restore overtime protections to 44 percent of the white collar workforce. This is still below the historic standard, but definitely an improvement.    The Department also acted importantly and appropriately in 2013 when 16 years after first listing revision of the silica standard on its regulatory agenda, OSHA proposed a new protective regulation.    Disease and deaths from silica exposure are preventable, yet more workers died from silicosis and silica related diseases in 2013 than from explosions or from being caught in or crushed by collapsing materials, running equipment, or machinery.    These as well as other regulations and actions we discussed in our written testimony, including extension of minimum wage and overtime protections to the home care workforce, are important actions within the constitutional and statutory authorities of the President, the Labor Department, and the EEOC, in response to some of today's workforce challenges and crises.    By improving wages and working conditions for tens of millions of workers, the administration's actions will strengthen American working families and help achieve a healthier and more robust economy in which all who contribute to its success have a shot at sharing fairly in its prosperity.    Thank you. I would welcome any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Walberg. Thank you. Mr. Hammock, welcome, and we recognize you now for your five minutes of testimony.</t>
   </si>
   <si>
-    <t>Hammock</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hammock. Thank you, Mr. Chairman, Congressman Pocan, members of the subcommittee. Good morning. I am Brad Hammock. I manage the Workplace Safety and Health Practice Group at the law firm of Jackson Lewis.    Before joining Jackson Lewis, I spent 10 years at the Department of Labor working on various matters on behalf of OSHA. I worked specifically on OSHA's regulatory program, including serving as counsel for safety standards for the last few years of my tenure there. I am very familiar with OSHA's regulatory program having been and worked there and lived there.    Since leaving the Department, I have had the privilege of working with countless employers in a variety of industries in a compliance assistance capacity, as well as helping them navigate OSHA enforcement actions.    I am pleased to offer my perspective on regulatory burdens on employers from my experience of working for OSHA as well as representing employers across the country.    Many employers I work with are feeling the full weight of OSHA and fear several new regulatory initiatives set to become final rules in 2016. In addition, now more than ever employers are facing compliance challenges resulting from the ambiguous OSHA guidance in such areas as ergonomics, workplace violence, and process safety management.    The combination of new regulatory requirements and aggressive enforcement places significant pressure on employers. That is why it is critical that agencies be mindful of the cumulative impact of regulations on employers and be judicious with promulgating new rules.    From a regulatory perspective, OSHA is extremely active. One of the regulatory actions that my clients raise with me with great concern is OSHA's proposed electronic recordkeeping rule. As proposed, this rule would amend the agency's recordkeeping regulations to add new electronic reporting obligations.    OSHA would require employers with over 250 employees per establishment to submit their OSHA 300 Logs to the agency on a quarterly basis, and OSHA would in turn post those OSHA 300 Logs on its website to make the information publicly available.    There are several problems with this rule, starting with the fact that OSHA has not justified any safety and health benefits from the proposal. OSHA seems to believe that benefits will flow once injury and illness information is made public, and customers, employees, and others can make determinations about how safe a particular worksite is. This in turn would lead employers to make improvements in workplace safety.    This is wrong at several levels. OSHA should know that the occurrence of an injury in and of itself is not a complete or fair indication of an employer's safety and health program and its effectiveness. To suggest that individuals, whether it be researchers, workers, other employers, customers, or unions should make conclusions about the safety and health of a workplace based on just the public report of an OSHA 300 Log, a lagging as opposed to a leading indicator, is misguided.    As you can imagine, employers are very concerned with this proposal, that may unfairly tarnish a worksite as unsafe, having a negative impact on the employer of the site, regardless of the true effectiveness of the employer's safety and health program.    Another significant regulatory initiative that will have major impacts on many employers is OSHA's proposed rule regulating crystalline silica. OSHA has been working on a respirable crystalline silica rule for decades.    To be clear, crystalline silica at certain exposure levels has been shown to cause silicosis, a potentially fatal lung disease. Over the course of the last several decades, however, the incidences of silicosis have been steadily and rapidly declining, according to the Centers for Disease Control.    It is with this backdrop that OSHA's proposal was issued. For many employers, particularly small employers, the rule will be highly burdensome. Take the construction industry, for example. Not only is OSHA proposing to significantly reduce the permissible exposure limit for silica in construction, it is proposing other extensive requirements, including prohibitions in certain instances on work practices such as the use of compressed air, dry sweeping, and dry brushing.    Some stakeholders have estimated that the cost of the rule for construction alone will be approximately $4.9 billion a year.    There are other rules as well in the most recent regulatory agenda, over 30 regulatory initiatives are proposed by OSHA. This comprises almost 45 percent of the regulatory burden of the Department of Labor.    Aside from the new regulatory requirements discussed, in the last several years many employers have been challenged by OSHA enforcement initiatives in areas where the agency has provided little compliance clarity.    I just want to highlight one here today, ergonomics. Over the last few years, OSHA has been active in attempting to utilize the general duty clause to cite employers for failing to take certain actions to protect employees from musculoskeletal disorders.    The problem with this for many employers is that OSHA has provided little guidance on what its expectations are for compliance with respect to ergonomics. Thus, many employers are following OSHA's own ergonomics guidelines for a particular industry, but they still get cited because OSHA wants them to actually do more undefined with respect to ergonomics.    In conclusion, I want to leave one final thought with the Committee. All these burdens placed on employers may actually take resources away from workplace safety and health. While compliance is important to employers, so is the day to day job of working to prevent injuries.    When OSHA proposes a rule or embarks on an enforcement initiative, it must truly analyze how necessary the rule is, the benefits of the rule, and the adverse consequences of it.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -106,9 +91,6 @@
     <t>412317</t>
   </si>
   <si>
-    <t>Glenn Thompson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Thompson. Mr. Chairman, thank you so much. Thank you to the witnesses for being here, lending your experience and expertise to a very important issue.    Mr. Batkins, I work hard every day to try to boost earnings of low income workers as co-chair of the Career and Technical Education Caucus. I believe that is the best way, most effective way to truly do that, through the provisions of opportunities for job training to get the skills/competencies.    This Committee, this whole Committee, Education and the Workforce Committee, has done an outstanding job with legislation. We have one that has crossed the finish line a year ago or so, the Workforce Innovation Opportunity Act, which is about job training. I think within the days to come, the ESSA, which really clears for the secondary levels a pathway for career and technical education training to have a better role within our schools.    The administration, on the other hand, has kind of a different opinion. As you know, in March 2014, the President issued an Executive Order directing Secretary of Labor Perez to update the so-called ``white collar regulations'' that establish overtime requirements for executive, administrative, and professional employees.    This proposed rule seeks to extend overtime pay in a broad fashion, and according to the administration, will boost the wages of millions of workers that are exempt from current regulations.    The Department of Labor estimates that average annualized direct employer costs will total up to $253 million per year, depending on the updating methodology.    Is this an effective tool to boost the earnings of low income workers? In other words, will this regulation have its intended effect?</t>
   </si>
   <si>
@@ -130,9 +112,6 @@
     <t>412585</t>
   </si>
   <si>
-    <t>Mark Pocan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pocan. Thank you, Mr. Chairman. I know everyone says it is a new day here in Congress. Sometimes I feel like it is Groundhog Day. I feel like every month we have one of these hearings or sometimes two of these hearings. I was in line at the White House for a holiday party behind someone from the Department of Labor, I am like hey, I have not seen you in about a month.    It is good to be back because I think it allows us to offer maybe some of the facts that are out there. I think, Ms. Owens, you mentioned specifically, according to the Bureau of Labor Statistics, a study on the percent of layoffs from regulation is something like 0.1 to 0.4 percent over about a seven year period. It is extremely low. Yet, the percentage of jobs lost due to lack of demand is really the significant barrier.    I am a small business person for 28 years. I know this from practical experience as well. That is the reality. That is the facts that are out there.    I know we talk about the costs that are involved. Again, as much as I think sometimes we inflate the costs, when I read some of these reports about what something is going to cost. When you actually look back at it, according to the Office of Management and Budget, they said in fiscal year 2014, for example, executive agency major rules delivered the benefits of $22.8 billion annually while the costs were 3 to $4 billion annually. The benefit is definitely exceeding any costs.    In fact, I would argue it is kind of like that credit card commercial, the cost of this, the cost of this, the cost of coming home to your child at the end of the day without an injury, priceless.    Again, your statistics showed that is what happens with these regulations. Since this is the Education and Workforce Protections Committee as opposed to Chamber protections, let me ask you a question, Ms. Owens, specifically regarding something I just did.    I recently followed a worker who works as a caregiver. They have been doing this for 23 years, and are making now $11.50 a hour, after 23 years of working as a caregiver. We helped physically move the body of someone, we did cooking and cleaning, we did all this stuff, non-stop busy, taking care of the pills very precisely, cutting what the person has to have.    Look at the work involved, and all too often we find these folks are not getting the proper pay, the proper overtime, especially when they do overnight shifts, et cetera.    Can you just talk a little bit about that, just one rule, for example, since I just did that Thanksgiving week, it is fresh in my mind. This is someone who is fighting for $15 minimum wage in an union. Can you just talk about that?</t>
   </si>
   <si>
@@ -148,9 +127,6 @@
     <t>412648</t>
   </si>
   <si>
-    <t>Elise M. Stefanik</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Stefanik. Thank you, Mr. Chairman. I wanted to start off with a broad question to Mr. Batkins. Do you believe there is a connection between the $100 billion in additional annual regulatory costs imposed by this administration and the stagnation facing this nation's wages?</t>
   </si>
   <si>
@@ -175,7 +151,7 @@
     <t xml:space="preserve">    Chairman Walberg. I thank the gentlelady. Now, I recognize the gentleman from California, Mr. DeSaulnier.</t>
   </si>
   <si>
-    <t>Desaulnier</t>
+    <t>412613</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Desaulnier. Thank you, Mr. Chairman. I want to thank all the witnesses, and like Mr. Pocan, I think sometimes as somebody who opened my first business--I am going to date myself--in the 1970s, and I did it with my wife, Mr. Beebe. Although we are still very good friends and we are former's, I am not sure I would ever suggest that I would prefer a welder or another cook as opposed to having her on the payroll, but there were moments.    I wanted to direct a question to you because you brought something up which I often think as a former small business person is an appropriate approach. You mentioned a small business acting in good faith should have some consideration for that.    The opposite of that always bothered me as well, where I knew I was competing against companies that were not complying with OSHA requirements or were not paying their employees what they were supposed to pay or wage theft.    I wonder if you have some comment on that. I understand we all want the right kind of regulatory oversight to allow you to thrive, but on the other hand, in the absence of it in my estimation, being effective, you get frustrated when you do comply that you are competing against companies that flout those rules mostly because, in my experience, there were not enough resources for government agencies actually to enforce the regulations, or your competitor just did not have a very ethical business model.</t>
@@ -244,9 +220,6 @@
     <t xml:space="preserve">    Chairman Walberg. Thank you. I know that was our impact with care for my mother, similar, Ms. Owens. It is a challenge. I applaud you for doing what you did. It is the right thing to do, but a difficult process. To find the caregivers that were consistent, because of what Michigan has in place with the overtime rules, made it difficult for mom to have someone she recognized to some degree every day.    I now recognize for five minutes of questioning, Mr. Courtney.</t>
   </si>
   <si>
-    <t>Courtney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Courtney. Thank you, Mr. Chairman. I appreciate getting waived in today, and it is good to be back on the subcommittee. Thank you to the witnesses for your testimony.    Mr. Batkins, you sort of raised this sort of morbidity issue of the effect of unemployment caused by regulations that result in people's early life passing away. It is an interesting concept.    Normally, in this Committee, we have talked about morbidity in terms of the lack of regulation. Again, as someone who is in year nine - Upper Branch, where 29 coal miners lost their lives. We obviously just had a jury verdict in West Virginia holding the employer responsible. There is no question in my mind that the failure of Congress to update MSHA's regulations could have prevented that horrendous tragedy.    Deepwater Horizon, where 11 workers lost their lives because of just incredibly shoddy oversight and regulation of the deep water drilling.    I represent New London, Connecticut, home of the Coast Guard Academy, seeing the assets of the Coast Guard having to get pulled out of Homeland Security and repositioned down at the Gulf of Mexico to deal with the mess that was created there by poor regulation.    In Middletown, Connecticut, we had a power plant explosion where again the failure to update our regulations in terms of cleaning the piping at the plant there, which even private sector folks like Siemens had already said was woefully out of date. We had seven workers who lost their lives, one of them was a very good friend of mine. I still talk to his widow on a frequent basis.    There is no question that we live in a democracy and it is important to raise any issue here, but frankly there needs to be a balance.    If we are going to talk about morbidity and the effect of regulations, we have to recognize that workplace fatalities is a reality of life, and we are not doing a very good job right now in terms of bolstering really common sense updates that even in the private sector we have been warned is going to cause problems.    Ms. Owens, I do not know if you want to comment on that.</t>
   </si>
   <si>
@@ -257,9 +230,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Chairman Walberg. Thank you, Mr. Courtney. I now recognize the gentleman from California, Mr. Takano.</t>
-  </si>
-  <si>
-    <t>Takano</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Takano. Thank you, Mr. Chairman. I am glad to join the subcommittee this morning as we review the Department of Labor's regulatory agenda to promote shared prosperity and help hard working Americans.    It is past time for the Department to update the Fair Labor Standards Act's exemption for overtime pay. When enacted, the intent of the white collar exemption was to exempt those with sufficient power in the labor market who are able to advocate for better wages and hours for themselves. That is clearly not the case today.    In 1975, more than 60 percent of salaried workers were eligible for overtime. Now, only 8 percent of workers are eligible.    The $23,000 threshold is outdated and below the poverty level for a family of four. Americans are working longer hours and are more productive, yet their wages are largely flat. Updating the overtime exemption will help millions of workers make ends meet and give an added boost to our economy.    My first question is for Ms. Owens. Ms. Owens, there has been a lot of discussion about the proposed overtime regulation's impact on job creation. I have been able to come and hear some of that from your fellow panelists.    The Department has updated the salary level seven times since the Fair Labor Standards Act became law in 1938. Can you talk generally about how industry has complied with these adjustments? Is there a history of significant job loss attendant to these regulations?    You mentioned a National Retail Federation report--I will stop there. Go ahead.</t>
@@ -685,11 +655,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -711,11 +679,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -737,11 +703,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -761,13 +725,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
         <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -789,11 +751,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -813,13 +773,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -841,11 +799,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -865,13 +821,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -893,11 +847,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -917,13 +869,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -945,11 +895,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -969,13 +917,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -995,13 +941,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1021,13 +965,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" t="s">
-        <v>30</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1047,13 +989,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1073,13 +1013,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
         <v>29</v>
-      </c>
-      <c r="G17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1101,11 +1039,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1125,13 +1061,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" t="s">
-        <v>38</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1151,13 +1085,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s">
-        <v>23</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1177,13 +1109,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" t="s">
-        <v>38</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1205,11 +1135,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1229,13 +1157,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" t="s">
-        <v>44</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1255,13 +1181,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1281,13 +1205,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" t="s">
-        <v>44</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1307,13 +1229,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1333,13 +1253,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" t="s">
-        <v>44</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1359,13 +1277,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1385,13 +1301,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
         <v>43</v>
-      </c>
-      <c r="G29" t="s">
-        <v>44</v>
-      </c>
-      <c r="H29" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1413,11 +1327,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1437,13 +1349,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s">
-        <v>53</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1463,13 +1373,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1489,13 +1397,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s">
-        <v>53</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1515,13 +1421,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1541,13 +1445,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s">
-        <v>53</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1567,13 +1469,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s">
-        <v>23</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1593,13 +1493,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s">
-        <v>53</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1619,13 +1517,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s">
-        <v>23</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1645,13 +1541,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s">
-        <v>53</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1673,11 +1567,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1697,13 +1589,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1725,11 +1615,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1749,13 +1637,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1777,11 +1663,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1801,13 +1685,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1829,11 +1711,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1853,13 +1733,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1881,11 +1759,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1905,13 +1781,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s">
-        <v>26</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1933,11 +1807,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1957,13 +1829,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1985,11 +1855,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2009,13 +1877,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s">
-        <v>76</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2035,13 +1901,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" t="s">
-        <v>23</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2061,13 +1925,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s">
-        <v>76</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2089,11 +1951,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2113,13 +1973,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s">
-        <v>81</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2139,13 +1997,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s">
-        <v>23</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2165,13 +2021,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s">
-        <v>81</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2191,13 +2045,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s">
-        <v>23</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2217,13 +2069,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s">
-        <v>81</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2243,13 +2093,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s">
-        <v>23</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2271,11 +2119,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2295,13 +2141,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
-      </c>
-      <c r="G64" t="s">
-        <v>38</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2323,11 +2167,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97778.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97778.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>412213</t>
   </si>
   <si>
+    <t>Walberg</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Walberg. Good morning. It is sure quiet in the room. After running up two flights of stairs, let me get my wind back here.    A quorum being present, the subcommittee will come to order. Good morning. I would like to thank you all for joining us today, and thank our witnesses for being here with us to share their experiences and perspectives.    The end of the year is an important time to reflect on what has been accomplished and what work remains to be done. As members of the Education and the Workforce Committee, this is especially important as we consider the significant challenges many workers continue to face.    Recent months have shown signs of economic improvement and signs of continued concern, both. Roughly 8 million Americans are still unemployed and searching for work, and an additional 6 million are working part-time hours when they really need and want full-time jobs. That does not include the millions of individuals who are so discouraged by meager job prospects that they have simply dropped out of the workforce entirely.    Meanwhile, those with jobs are facing fewer opportunities to advance and earn higher wages. Some will say the problems facing workers and job creators can be solved with more spending, more Government mandates, and more regulation. Perhaps we will hear some of those claims today, but that is the same failed approach that the Obama administration has pursued over the last seven years.    The results have been an anemic economy, sluggish job growth, and most importantly, less opportunity and prosperity for millions of hard working men and women.    Time and again, we have called on the administration, including those at OSHA and the Department of Labor more broadly, to pursue a different, more responsible course, and time and again, our calls have been rebuffed.    The most recent example was the release of the administration's regulatory agenda, which doubles down on the same extreme regulatory approach that has made the problems plaguing the country worse at the expense of those struggling the most.    Let me be clear. Federal policies do play an important role in ensuring safe and healthy workplaces and protecting the basic rights of hard working men and women. That is not what we are here to discuss today.    The question is not whether there should be rules of the road for workers and employers to follow. The question is how we ensure those rules are implemented fairly, responsibly, and in a way that promotes the best interests of both workers and their employers.    Unfortunately, more often than not, what we have seen from this administration is an overly punitive and unnecessarily burdensome approach. Adding insult to injury, often these rules and regulations are being developed and changed without any public input. This regulatory approach is holding us back, and that is the focus of today's hearing.    We know there are areas where we can make meaningful change without creating costly consequences and unintended harm. For example, Chairman Kline and I have said we are open to modernizing current overtime rules to strengthen protections for workers and help employers fulfill their legal responsibilities.    Instead, we have had to confront a proposal that will limit workplace flexibility, make it harder for workers to advance up the economic ladder, and impose a significant burden on small businesses.    Earlier this year, Nicole Berberich, director of human resources at the Cincinnati Animal Referral and Emergency Center, testified in front of this subcommittee about the challenges employers are already facing because of complicated federal wage and hour regulations. She also explained that small businesses like the one she works for are likely to experience the burdens of these regulations disproportionately. She added that those burdens will continue to worsen with the expected overtime changes.    At a separate hearing before this same subcommittee, Eric Williams, who worked his way up from crew member at a fast food restaurant to become a franchise and chief operating officer at CKE Restaurants, shared his fears that the administration's overtime proposal, and I quote, ``will severely limit hard working, talented Americans from realizing their dreams,'' as he dreamed and realized. He worries that because of the proposal, some employees, and I quote, ``may never reach their full potential.'' That is a shame.    The overtime proposal is just one example of this administration's misguided approach to regulating. At another hearing, Drew Greenblatt, a steel wire manufacturer from Baltimore, spoke to us about how Government policies are hindering growth and how he and others in his industry find themselves stuck between a rock and a hard place.    He explained the situation as between, and I quote, ``A rock of harsh and unforgiving global economic competition and a hard place of inflexible and ever proliferating regulations.''    It should be clear to anyone who is listening that the current regulatory onslaught is making life harder for working families and small business owners, not better.    According to a study commissioned by the National Association of Manufacturers, federal regulations cost more than $2 trillion in lost economic growth annually, and the American Action Forum estimates that the administration imposed more than $181 billion in new regulatory costs during 2014 alone. These are staggering statistics that in many ways represent lost wages and fewer jobs for American workers.    Today, we will hear from our witnesses how this unprecedented regulatory approach has created troubling concerns for workers and small businesses during the past year. My hope is that by demanding more responsible regulatory policies we can ensure a prosperous 21st century workplace.    With that, I will now recognize my Ranking Member, Ms. Wilson, for her opening remarks.</t>
   </si>
   <si>
@@ -64,24 +73,36 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Batkins</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Batkins. Thank you, Chairman Walberg, members of the Committee. Thank you for the opportunity to appear today.    In this testimony, I wish to highlight the following points: first, by virtually any metric, regulatory activity has increased across the federal government, from the 100 major rules issues in 2010 to the more than $100 billion in new annual regulatory costs. These new measures will affect employment.    Second, there is a general consensus that regulations have statistically significant but small effects on industry employment. The American Action Forum's work has found that $1 billion in new annual regulatory costs could cut industry employment by 3.6 percent, and third, even federal agencies routinely acknowledge the impact of regulations on employment.    From 2012 to present, 22 rules have conceded they could negatively impact employment, resulting in nearly 86,000 lost jobs.    Regulatory activity has undoubtedly increased in recent years. The paperwork burden, the number of major rules, and monetized regulatory costs, have all trended upward. What does this mean for employment?    We know there are more regulatory compliance officers now than ever before, approximately 246,000. As the regulatory burden grows, so, too, does demand on businesses, to shift employees from profit making endeavors to compliance.    A 2013 Minneapolis Fed study emphasized paperwork burdens and what being forced to hire additional compliance staff means for small banks. The study found that hiring two additional compliance officers reduced profitability by roughly half a percent, and that one-third of the banks studied would become unprofitable if forced to hire additional compliance officers.    For regulatory costs, EPA and the Department of Energy alone have added $39 billion in new annual burdens since 2009. For employees in fossil fuel power plants, these costs are one leading factor to a 28 percent decline in industry employment since 2008.    There are other factors in play but regulation has definitely made its mark. According to the most recent literature, regulation has a modest but significant impact on industry employment.    In one seminal study, Professor Michael Greenstone examined how employment in pollution intensive industries in non-attainment ozone counties differed from attainment counties. The results were dramatic. Non-attainment counties, those with more stringent EPA controls, lost 590,000 jobs, $37 billion in capital, and $75 billion in output.    Dr. Richard Morgenstern, whose work is often cited in regulatory impact analyses, summarizes the intersection of regulation and employment writing, ``there is only limited evidence that environmental regulation leads to significant job loss.'' Note, he did not say there is evidence environmental regulation leads to major job gains.    The American Action Forum's work found that for every $1 billion increase in regulations, industry employment declines by 3.6 percent.    More important than a top line number, however, is the human element to regulation. Even if a rule leads to a net zero impact on aggregate employment but results in thousands of job transfers, there still might be individual job losses and stagnant wages.    For instance, research has found job displacement can lead to a 15 to 20 percent increase in death rates in the 20 years following displacement. This should not be discounted by regulators or policymakers.    Finally, regulatory agencies need to perform more employment impact analyses. Rutgers University Professor Stuart Shapiro examined a regulatory impact analysis of 56 major rules and found that just 11 quantified the rules' impact on employment. On rules since 2012 that had discussed the impact on employment, the American Action Forum found 22 admitted some job losses were possible, including 11 to date in 2015.    As the Department of Energy once conceded, ``it is possible small manufacturers will choose to leave the industry or choose to be purchased by or merged with larger market players.''    Likewise, a Department of Labor rule admitted its implications would result in a dead weight loss and dis-employ roughly 1,000 workers annually. The combined employment loss from the 22 rules, according to agency estimates, could top 85,000 workers.    Based on the research from Professors Eric Posner and Jonathan Masur, the cost of an individual job displacement is $100,000. If we take this 85,000 jobs figure at face value, it means $8.5 billion in costs, human costs, a human toll from regulation.    The proposed overtime expansions, the fiduciary rulemaking, and redefining the joint employer rule could add to these significant totals.    In conclusion, the general consensus is regulation does have an effect on employment, at least at the industry level. More research is needed in this field, and agencies, OIRA, and independent parties should work to perform more rigorous analysis on the intersection of regulation and employment.    Thank you for your time, and I look forward to answering your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Walberg. Thank you. Now, I recognize Mr. Beebe, and thank you for being here, taking time away from your business to join us and give us your experience.</t>
   </si>
   <si>
+    <t>Beebe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Beebe. My pleasure. Good morning, Chairman Walberg, Ranking Member Pocan, and members of the Committee. I am pleased to be here on behalf of the National Federation of Independent Business. I am one of the owners of Highland Engineering, and have been a member of NFIB since 1993. I also currently serve on the NFIB Michigan Leadership Council.    Thank you for holding today's hearing on how the administration's regulatory onslaught is affecting workers and job creators.    The current regulatory framework negatively impacts small and closely held businesses in several important ways, so I appreciate the invitation to be here today to discuss these important issues.    The NFIB is the nation's leading small business advocacy organization. As part of representing small business owners, NFIB frequently conducts surveys of both the NFIB membership and the small business population as a whole.    Government regulation consistently ranks as one of the greatest concerns. In fact, since January 2009, government requirements and red tape have been a top three problem for small business owners on NFIB's monthly small business surveys.    In the administration's fall 2015 regulatory agenda released on November 18, there are 3,297 federal regulations in the pipeline waiting to be proposed, finalized, or implemented. About 10 new regulations are finalized every day, according to data on Regulations.gov, adding to the volumes of rules with which small business owners must comply. This constant onslaught of government regulation makes it incredibly difficult for me to operate my day-to-day business.    I would like to spend the rest of my time telling you about my personal experience dealing with government regulations. Highland Engineering was founded in 1986 and we moved to Howell in 1987. We specialize primarily in troop support equipment for the U.S. Department of Defense, as well as some other agencies. With 45 full-time employees, we are a contractor for all branches of the DOD, FEMA, and foreign militaries.    In addition to our government work, we also serve commercial customers in the automation and water treatment areas.    Through our company's nearly 30 year history, I have seen the impact of the direct costs of excessive regulations, particularly in the past four years. For example, the number of clauses in our contracts have increased nearly 50 percent since 2011. Additionally, reporting requirements have increased to the point that they have become overbearing.    Keeping up with these ever changing regulations is such a task that I have had to hire a professional compliance officer, who also happens to be my wife, Sally, to work 10 to 20 hours per week solely to make sure we are abiding by complex, uncertain, and ever changing regulations.    Each time a new regulation comes out, she has to research it, decide if it pertains to us, and if it does pertain to us, figure out what we need to do about it.    The pace of changes in regulations is astounding. In October of 2011, the Federal Acquisition Regulation or FAR, was on Revision 44. By October 2015, it is now on Revision 84. With this current pace of excessive regulation by the administration, more and more small businesses will either have to divert their monies to hiring compliance personnel, as we did, or will simply decide the burden is too great and get away from the over regulation by dissolving their businesses.    Further, the companies still doing business with the government are passing on these increased costs to the taxpayers instead of being able to use this money to invest in the company's development or to hire new employees. We have had to focus on understanding and complying with new regulations.    Further, in my experience with the Department of Labor, I have found the agency to be more interested in trying to find what we did wrong instead of providing assistance and education in understanding new rules.    My company set up an employee stock ownership plan as a way to take care of our employees and provide for their retirements. We hired lawyers to make sure we understood the process and that we did it right. After the plan was filed with DOL, DOL determined that they needed to audit us. After 17 months of what we thought was nothing more than a phishing expedition, they determined that we did everything 100 percent correct. Those 17 months cost us a lot of time and money.    Highland Engineering's business is primarily with government agencies, and we have seen firsthand the detrimental effects of ever changing and excessive regulations, especially as a small business with limited resources, resources that we could be using to more fully support our core mission, which is supporting the warfighters.    The current state of government regulation has become a confusing and unpredictable challenge for the vast majority of small business owners. Government regulations should not hinder the ability of small business owners to create or expand their business. The current pace of new regulations combined with the existing regulatory burden can dictate the business decisions an owner must make, whether it means using a compliance officer, attempting to expand its business, or hiring new employees.    As Congress examines the current regulatory burden faced by small business owners, I would encourage you to keep the following goals in mind: number one, agencies should take into account a proposed regulation's indirect economic impact on small business. Two, agencies should increase compliance assistance so small businesses acting in good faith can continue to operate without fear of undue penalties, and three, DOL and all agencies should be required to conduct SBIR panels when considering any new regulation.    Working toward these goals would create a more stable pro-growth environment for small businesses.    Thanks again for having me today, and I will be happy to answer any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Walberg. Thank you. Ms. Owens, we welcome you, thank you for being here. We now recognize you for five minutes.</t>
   </si>
   <si>
+    <t>Owens</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Owens. Thank you very much, Chairman Walberg, Mr. Pocan, and members of the subcommittee. I appreciate the opportunity to testify today on behalf of my organization, the National Employment Law Project, which engages in a number of activities designed to promote the interests and rights of low wage and unemployed workers.    The Obama administration has proposed or taken several executive regulatory and other agency actions essential to workers' ability to earn decent wages, meet responsibilities on the job and at home, and work in safe, healthy, and non-discriminatory workplaces. These actions have been thoughtful, informed, fair and balanced, and consistent with legal authority and legal responsibilities to further underlying workforce policy goals.    Far from causing harm, they make it more likely that we will rebuild the economy on a foundation of good jobs and safe and healthy workplaces.    Regulatory and related action by the Obama administration is extremely important. Wages for most workers have fallen over most of the last four decades, even as worker productivity grew, and the average age and education of the workforce rose. The Great Recession exacerbated these trends, particularly for low wage workers.    During the period of limited congressional action on workforce policy, administration action is a vital response to the wage crisis. It also better aligns workforce policy with today's economy and its evolving business and employment practices and family needs.    Several actions update old standards that because they have not been adjusted regularly neither meet the needs of today's workers nor serve employers effectively.    Contrary to arguments that workforce regulations are burdensome and costly job killers, analyses of regulations over a multi-year period find their benefits vastly exceed costs, while cost estimates typically fail to consider mitigating savings, and actual costs often turn out to be significantly lower than estimated.    Less than three-tenths of 1 percent of employers initiating mass layoffs in 2012 said government regulation was their layoff reason, affecting only five of every 2,000 laid-off employees.    A 2014 analysis of 10 proposed or final public health and safety rules, including OSHA's proposed silica rule, concluded they would save 10,000 lives, prevent 300,000 cases of occupational illness or injury, and yield a net overall benefit of as much as $122 billion. Frankly, 69 months of record uninterrupted job growth along with cutting the unemployment rate in half is wholly inconsistent with the notion that a regulatory onslaught has damaged the economy or cost us jobs.    In the face of extreme inequality, stagnant and declining wages, and inadequate labor markets, the Obama administration has acted judiciously and lawfully to help ensure that Americans who work for a living will make a decent living from work in safe, healthy, and non-discriminatory workplaces.    I will now briefly describe a couple of these initiatives. The Labor Department moved to revitalize the Fair Labor Standards Act and strengthen the middle class this July, when after a period of substantial outreach and sustained deliberation it proposed a rule updating the so-called ``white collar exemption'' to the overtime pay requirement.    Recognizing that the existing poverty level threshold of $23,660 is far too low, the Department proposed to lift it to a far more realistic level of $50,440. This change will benefit as many as 11 million workers and restore overtime protections to 44 percent of the white collar workforce. This is still below the historic standard, but definitely an improvement.    The Department also acted importantly and appropriately in 2013 when 16 years after first listing revision of the silica standard on its regulatory agenda, OSHA proposed a new protective regulation.    Disease and deaths from silica exposure are preventable, yet more workers died from silicosis and silica related diseases in 2013 than from explosions or from being caught in or crushed by collapsing materials, running equipment, or machinery.    These as well as other regulations and actions we discussed in our written testimony, including extension of minimum wage and overtime protections to the home care workforce, are important actions within the constitutional and statutory authorities of the President, the Labor Department, and the EEOC, in response to some of today's workforce challenges and crises.    By improving wages and working conditions for tens of millions of workers, the administration's actions will strengthen American working families and help achieve a healthier and more robust economy in which all who contribute to its success have a shot at sharing fairly in its prosperity.    Thank you. I would welcome any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Walberg. Thank you. Mr. Hammock, welcome, and we recognize you now for your five minutes of testimony.</t>
   </si>
   <si>
+    <t>Hammock</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hammock. Thank you, Mr. Chairman, Congressman Pocan, members of the subcommittee. Good morning. I am Brad Hammock. I manage the Workplace Safety and Health Practice Group at the law firm of Jackson Lewis.    Before joining Jackson Lewis, I spent 10 years at the Department of Labor working on various matters on behalf of OSHA. I worked specifically on OSHA's regulatory program, including serving as counsel for safety standards for the last few years of my tenure there. I am very familiar with OSHA's regulatory program having been and worked there and lived there.    Since leaving the Department, I have had the privilege of working with countless employers in a variety of industries in a compliance assistance capacity, as well as helping them navigate OSHA enforcement actions.    I am pleased to offer my perspective on regulatory burdens on employers from my experience of working for OSHA as well as representing employers across the country.    Many employers I work with are feeling the full weight of OSHA and fear several new regulatory initiatives set to become final rules in 2016. In addition, now more than ever employers are facing compliance challenges resulting from the ambiguous OSHA guidance in such areas as ergonomics, workplace violence, and process safety management.    The combination of new regulatory requirements and aggressive enforcement places significant pressure on employers. That is why it is critical that agencies be mindful of the cumulative impact of regulations on employers and be judicious with promulgating new rules.    From a regulatory perspective, OSHA is extremely active. One of the regulatory actions that my clients raise with me with great concern is OSHA's proposed electronic recordkeeping rule. As proposed, this rule would amend the agency's recordkeeping regulations to add new electronic reporting obligations.    OSHA would require employers with over 250 employees per establishment to submit their OSHA 300 Logs to the agency on a quarterly basis, and OSHA would in turn post those OSHA 300 Logs on its website to make the information publicly available.    There are several problems with this rule, starting with the fact that OSHA has not justified any safety and health benefits from the proposal. OSHA seems to believe that benefits will flow once injury and illness information is made public, and customers, employees, and others can make determinations about how safe a particular worksite is. This in turn would lead employers to make improvements in workplace safety.    This is wrong at several levels. OSHA should know that the occurrence of an injury in and of itself is not a complete or fair indication of an employer's safety and health program and its effectiveness. To suggest that individuals, whether it be researchers, workers, other employers, customers, or unions should make conclusions about the safety and health of a workplace based on just the public report of an OSHA 300 Log, a lagging as opposed to a leading indicator, is misguided.    As you can imagine, employers are very concerned with this proposal, that may unfairly tarnish a worksite as unsafe, having a negative impact on the employer of the site, regardless of the true effectiveness of the employer's safety and health program.    Another significant regulatory initiative that will have major impacts on many employers is OSHA's proposed rule regulating crystalline silica. OSHA has been working on a respirable crystalline silica rule for decades.    To be clear, crystalline silica at certain exposure levels has been shown to cause silicosis, a potentially fatal lung disease. Over the course of the last several decades, however, the incidences of silicosis have been steadily and rapidly declining, according to the Centers for Disease Control.    It is with this backdrop that OSHA's proposal was issued. For many employers, particularly small employers, the rule will be highly burdensome. Take the construction industry, for example. Not only is OSHA proposing to significantly reduce the permissible exposure limit for silica in construction, it is proposing other extensive requirements, including prohibitions in certain instances on work practices such as the use of compressed air, dry sweeping, and dry brushing.    Some stakeholders have estimated that the cost of the rule for construction alone will be approximately $4.9 billion a year.    There are other rules as well in the most recent regulatory agenda, over 30 regulatory initiatives are proposed by OSHA. This comprises almost 45 percent of the regulatory burden of the Department of Labor.    Aside from the new regulatory requirements discussed, in the last several years many employers have been challenged by OSHA enforcement initiatives in areas where the agency has provided little compliance clarity.    I just want to highlight one here today, ergonomics. Over the last few years, OSHA has been active in attempting to utilize the general duty clause to cite employers for failing to take certain actions to protect employees from musculoskeletal disorders.    The problem with this for many employers is that OSHA has provided little guidance on what its expectations are for compliance with respect to ergonomics. Thus, many employers are following OSHA's own ergonomics guidelines for a particular industry, but they still get cited because OSHA wants them to actually do more undefined with respect to ergonomics.    In conclusion, I want to leave one final thought with the Committee. All these burdens placed on employers may actually take resources away from workplace safety and health. While compliance is important to employers, so is the day to day job of working to prevent injuries.    When OSHA proposes a rule or embarks on an enforcement initiative, it must truly analyze how necessary the rule is, the benefits of the rule, and the adverse consequences of it.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -91,6 +112,12 @@
     <t>412317</t>
   </si>
   <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>Glenn</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Thompson. Mr. Chairman, thank you so much. Thank you to the witnesses for being here, lending your experience and expertise to a very important issue.    Mr. Batkins, I work hard every day to try to boost earnings of low income workers as co-chair of the Career and Technical Education Caucus. I believe that is the best way, most effective way to truly do that, through the provisions of opportunities for job training to get the skills/competencies.    This Committee, this whole Committee, Education and the Workforce Committee, has done an outstanding job with legislation. We have one that has crossed the finish line a year ago or so, the Workforce Innovation Opportunity Act, which is about job training. I think within the days to come, the ESSA, which really clears for the secondary levels a pathway for career and technical education training to have a better role within our schools.    The administration, on the other hand, has kind of a different opinion. As you know, in March 2014, the President issued an Executive Order directing Secretary of Labor Perez to update the so-called ``white collar regulations'' that establish overtime requirements for executive, administrative, and professional employees.    This proposed rule seeks to extend overtime pay in a broad fashion, and according to the administration, will boost the wages of millions of workers that are exempt from current regulations.    The Department of Labor estimates that average annualized direct employer costs will total up to $253 million per year, depending on the updating methodology.    Is this an effective tool to boost the earnings of low income workers? In other words, will this regulation have its intended effect?</t>
   </si>
   <si>
@@ -112,6 +139,12 @@
     <t>412585</t>
   </si>
   <si>
+    <t>Pocan</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pocan. Thank you, Mr. Chairman. I know everyone says it is a new day here in Congress. Sometimes I feel like it is Groundhog Day. I feel like every month we have one of these hearings or sometimes two of these hearings. I was in line at the White House for a holiday party behind someone from the Department of Labor, I am like hey, I have not seen you in about a month.    It is good to be back because I think it allows us to offer maybe some of the facts that are out there. I think, Ms. Owens, you mentioned specifically, according to the Bureau of Labor Statistics, a study on the percent of layoffs from regulation is something like 0.1 to 0.4 percent over about a seven year period. It is extremely low. Yet, the percentage of jobs lost due to lack of demand is really the significant barrier.    I am a small business person for 28 years. I know this from practical experience as well. That is the reality. That is the facts that are out there.    I know we talk about the costs that are involved. Again, as much as I think sometimes we inflate the costs, when I read some of these reports about what something is going to cost. When you actually look back at it, according to the Office of Management and Budget, they said in fiscal year 2014, for example, executive agency major rules delivered the benefits of $22.8 billion annually while the costs were 3 to $4 billion annually. The benefit is definitely exceeding any costs.    In fact, I would argue it is kind of like that credit card commercial, the cost of this, the cost of this, the cost of coming home to your child at the end of the day without an injury, priceless.    Again, your statistics showed that is what happens with these regulations. Since this is the Education and Workforce Protections Committee as opposed to Chamber protections, let me ask you a question, Ms. Owens, specifically regarding something I just did.    I recently followed a worker who works as a caregiver. They have been doing this for 23 years, and are making now $11.50 a hour, after 23 years of working as a caregiver. We helped physically move the body of someone, we did cooking and cleaning, we did all this stuff, non-stop busy, taking care of the pills very precisely, cutting what the person has to have.    Look at the work involved, and all too often we find these folks are not getting the proper pay, the proper overtime, especially when they do overnight shifts, et cetera.    Can you just talk a little bit about that, just one rule, for example, since I just did that Thanksgiving week, it is fresh in my mind. This is someone who is fighting for $15 minimum wage in an union. Can you just talk about that?</t>
   </si>
   <si>
@@ -127,6 +160,12 @@
     <t>412648</t>
   </si>
   <si>
+    <t>Stefanik</t>
+  </si>
+  <si>
+    <t>Elise</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Stefanik. Thank you, Mr. Chairman. I wanted to start off with a broad question to Mr. Batkins. Do you believe there is a connection between the $100 billion in additional annual regulatory costs imposed by this administration and the stagnation facing this nation's wages?</t>
   </si>
   <si>
@@ -154,6 +193,9 @@
     <t>412613</t>
   </si>
   <si>
+    <t>DeSaulnier</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Desaulnier. Thank you, Mr. Chairman. I want to thank all the witnesses, and like Mr. Pocan, I think sometimes as somebody who opened my first business--I am going to date myself--in the 1970s, and I did it with my wife, Mr. Beebe. Although we are still very good friends and we are former's, I am not sure I would ever suggest that I would prefer a welder or another cook as opposed to having her on the payroll, but there were moments.    I wanted to direct a question to you because you brought something up which I often think as a former small business person is an appropriate approach. You mentioned a small business acting in good faith should have some consideration for that.    The opposite of that always bothered me as well, where I knew I was competing against companies that were not complying with OSHA requirements or were not paying their employees what they were supposed to pay or wage theft.    I wonder if you have some comment on that. I understand we all want the right kind of regulatory oversight to allow you to thrive, but on the other hand, in the absence of it in my estimation, being effective, you get frustrated when you do comply that you are competing against companies that flout those rules mostly because, in my experience, there were not enough resources for government agencies actually to enforce the regulations, or your competitor just did not have a very ethical business model.</t>
   </si>
   <si>
@@ -220,6 +262,9 @@
     <t xml:space="preserve">    Chairman Walberg. Thank you. I know that was our impact with care for my mother, similar, Ms. Owens. It is a challenge. I applaud you for doing what you did. It is the right thing to do, but a difficult process. To find the caregivers that were consistent, because of what Michigan has in place with the overtime rules, made it difficult for mom to have someone she recognized to some degree every day.    I now recognize for five minutes of questioning, Mr. Courtney.</t>
   </si>
   <si>
+    <t>Courtney</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Courtney. Thank you, Mr. Chairman. I appreciate getting waived in today, and it is good to be back on the subcommittee. Thank you to the witnesses for your testimony.    Mr. Batkins, you sort of raised this sort of morbidity issue of the effect of unemployment caused by regulations that result in people's early life passing away. It is an interesting concept.    Normally, in this Committee, we have talked about morbidity in terms of the lack of regulation. Again, as someone who is in year nine - Upper Branch, where 29 coal miners lost their lives. We obviously just had a jury verdict in West Virginia holding the employer responsible. There is no question in my mind that the failure of Congress to update MSHA's regulations could have prevented that horrendous tragedy.    Deepwater Horizon, where 11 workers lost their lives because of just incredibly shoddy oversight and regulation of the deep water drilling.    I represent New London, Connecticut, home of the Coast Guard Academy, seeing the assets of the Coast Guard having to get pulled out of Homeland Security and repositioned down at the Gulf of Mexico to deal with the mess that was created there by poor regulation.    In Middletown, Connecticut, we had a power plant explosion where again the failure to update our regulations in terms of cleaning the piping at the plant there, which even private sector folks like Siemens had already said was woefully out of date. We had seven workers who lost their lives, one of them was a very good friend of mine. I still talk to his widow on a frequent basis.    There is no question that we live in a democracy and it is important to raise any issue here, but frankly there needs to be a balance.    If we are going to talk about morbidity and the effect of regulations, we have to recognize that workplace fatalities is a reality of life, and we are not doing a very good job right now in terms of bolstering really common sense updates that even in the private sector we have been warned is going to cause problems.    Ms. Owens, I do not know if you want to comment on that.</t>
   </si>
   <si>
@@ -230,6 +275,9 @@
   </si>
   <si>
     <t xml:space="preserve">    Chairman Walberg. Thank you, Mr. Courtney. I now recognize the gentleman from California, Mr. Takano.</t>
+  </si>
+  <si>
+    <t>Takano</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Takano. Thank you, Mr. Chairman. I am glad to join the subcommittee this morning as we review the Department of Labor's regulatory agenda to promote shared prosperity and help hard working Americans.    It is past time for the Department to update the Fair Labor Standards Act's exemption for overtime pay. When enacted, the intent of the white collar exemption was to exempt those with sufficient power in the labor market who are able to advocate for better wages and hours for themselves. That is clearly not the case today.    In 1975, more than 60 percent of salaried workers were eligible for overtime. Now, only 8 percent of workers are eligible.    The $23,000 threshold is outdated and below the poverty level for a family of four. Americans are working longer hours and are more productive, yet their wages are largely flat. Updating the overtime exemption will help millions of workers make ends meet and give an added boost to our economy.    My first question is for Ms. Owens. Ms. Owens, there has been a lot of discussion about the proposed overtime regulation's impact on job creation. I have been able to come and hear some of that from your fellow panelists.    The Department has updated the salary level seven times since the Fair Labor Standards Act became law in 1938. Can you talk generally about how industry has complied with these adjustments? Is there a history of significant job loss attendant to these regulations?    You mentioned a National Retail Federation report--I will stop there. Go ahead.</t>
@@ -605,7 +653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -613,7 +661,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,1541 +683,1806 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>40</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>40</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G23" t="s">
+        <v>48</v>
+      </c>
       <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G25" t="s">
+        <v>48</v>
+      </c>
       <c r="H25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G27" t="s">
+        <v>48</v>
+      </c>
       <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G29" t="s">
+        <v>48</v>
+      </c>
       <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G31" t="s">
+        <v>59</v>
+      </c>
       <c r="H31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G33" t="s">
+        <v>59</v>
+      </c>
       <c r="H33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G35" t="s">
+        <v>59</v>
+      </c>
       <c r="H35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G37" t="s">
+        <v>59</v>
+      </c>
       <c r="H37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G39" t="s">
+        <v>59</v>
+      </c>
       <c r="H39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G41" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G43" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
       <c r="H44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
       <c r="H46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
       <c r="H48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s">
+        <v>28</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
       <c r="H50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G51" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
       <c r="H52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G53" t="s">
+        <v>82</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G54" t="s">
+        <v>25</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>15</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G55" t="s">
+        <v>82</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
       <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G57" t="s">
+        <v>87</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G58" t="s">
+        <v>25</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>15</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G59" t="s">
+        <v>87</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G60" t="s">
+        <v>25</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>15</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G61" t="s">
+        <v>87</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>15</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G62" t="s">
+        <v>25</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
       <c r="H63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>40</v>
+      </c>
+      <c r="G64" t="s">
+        <v>41</v>
+      </c>
       <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
       <c r="H65" t="s">
-        <v>80</v>
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97778.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97778.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412213</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Walberg</t>
   </si>
   <si>
@@ -64,6 +70,21 @@
     <t xml:space="preserve">    Chairman Walberg. Good morning. It is sure quiet in the room. After running up two flights of stairs, let me get my wind back here.    A quorum being present, the subcommittee will come to order. Good morning. I would like to thank you all for joining us today, and thank our witnesses for being here with us to share their experiences and perspectives.    The end of the year is an important time to reflect on what has been accomplished and what work remains to be done. As members of the Education and the Workforce Committee, this is especially important as we consider the significant challenges many workers continue to face.    Recent months have shown signs of economic improvement and signs of continued concern, both. Roughly 8 million Americans are still unemployed and searching for work, and an additional 6 million are working part-time hours when they really need and want full-time jobs. That does not include the millions of individuals who are so discouraged by meager job prospects that they have simply dropped out of the workforce entirely.    Meanwhile, those with jobs are facing fewer opportunities to advance and earn higher wages. Some will say the problems facing workers and job creators can be solved with more spending, more Government mandates, and more regulation. Perhaps we will hear some of those claims today, but that is the same failed approach that the Obama administration has pursued over the last seven years.    The results have been an anemic economy, sluggish job growth, and most importantly, less opportunity and prosperity for millions of hard working men and women.    Time and again, we have called on the administration, including those at OSHA and the Department of Labor more broadly, to pursue a different, more responsible course, and time and again, our calls have been rebuffed.    The most recent example was the release of the administration's regulatory agenda, which doubles down on the same extreme regulatory approach that has made the problems plaguing the country worse at the expense of those struggling the most.    Let me be clear. Federal policies do play an important role in ensuring safe and healthy workplaces and protecting the basic rights of hard working men and women. That is not what we are here to discuss today.    The question is not whether there should be rules of the road for workers and employers to follow. The question is how we ensure those rules are implemented fairly, responsibly, and in a way that promotes the best interests of both workers and their employers.    Unfortunately, more often than not, what we have seen from this administration is an overly punitive and unnecessarily burdensome approach. Adding insult to injury, often these rules and regulations are being developed and changed without any public input. This regulatory approach is holding us back, and that is the focus of today's hearing.    We know there are areas where we can make meaningful change without creating costly consequences and unintended harm. For example, Chairman Kline and I have said we are open to modernizing current overtime rules to strengthen protections for workers and help employers fulfill their legal responsibilities.    Instead, we have had to confront a proposal that will limit workplace flexibility, make it harder for workers to advance up the economic ladder, and impose a significant burden on small businesses.    Earlier this year, Nicole Berberich, director of human resources at the Cincinnati Animal Referral and Emergency Center, testified in front of this subcommittee about the challenges employers are already facing because of complicated federal wage and hour regulations. She also explained that small businesses like the one she works for are likely to experience the burdens of these regulations disproportionately. She added that those burdens will continue to worsen with the expected overtime changes.    At a separate hearing before this same subcommittee, Eric Williams, who worked his way up from crew member at a fast food restaurant to become a franchise and chief operating officer at CKE Restaurants, shared his fears that the administration's overtime proposal, and I quote, ``will severely limit hard working, talented Americans from realizing their dreams,'' as he dreamed and realized. He worries that because of the proposal, some employees, and I quote, ``may never reach their full potential.'' That is a shame.    The overtime proposal is just one example of this administration's misguided approach to regulating. At another hearing, Drew Greenblatt, a steel wire manufacturer from Baltimore, spoke to us about how Government policies are hindering growth and how he and others in his industry find themselves stuck between a rock and a hard place.    He explained the situation as between, and I quote, ``A rock of harsh and unforgiving global economic competition and a hard place of inflexible and ever proliferating regulations.''    It should be clear to anyone who is listening that the current regulatory onslaught is making life harder for working families and small business owners, not better.    According to a study commissioned by the National Association of Manufacturers, federal regulations cost more than $2 trillion in lost economic growth annually, and the American Action Forum estimates that the administration imposed more than $181 billion in new regulatory costs during 2014 alone. These are staggering statistics that in many ways represent lost wages and fewer jobs for American workers.    Today, we will hear from our witnesses how this unprecedented regulatory approach has created troubling concerns for workers and small businesses during the past year. My hope is that by demanding more responsible regulatory policies we can ensure a prosperous 21st century workplace.    With that, I will now recognize my Ranking Member, Ms. Wilson, for her opening remarks.</t>
   </si>
   <si>
+    <t>412412</t>
+  </si>
+  <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Frederica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. WILSON. Mr. Chairman, I want to thank you for holding this hearing and giving us an opportunity to discuss the Department of Labor's work to ensure more American workers have the protections they need to build a better life for themselves and their families.    The legislation establishing the Department of Labor memorialized the agency's honored purpose, to foster, promote, and develop the welfare of working people, to improve their working conditions, and to advance their opportunities for profitable employment.    Since its inception in 1913 and throughout America's ever changing economic and social landscape, DOL has held steadfast to this original purpose. Using its court affirmed statutory authority, the department has proposed rules to promote fair wages, safe workplaces, and equal employment opportunities.    For instance, I was pleased to hear that DOL released the persuader rule for OMB review this week, and will soon finalize the rule. Four years in the making, this rule will level the playing field for workers wishing to organize by strengthening disclosure requirements for employers that hire pricey outside consultants to bust union organizing efforts.    It is my hope that our subcommittee, also tasked with promoting the welfare of working people, will join DOL in its efforts by passing legislation that supports working families. Instead, it seems we are stuck in a perpetual state of inaction or flat out obstruction. Efforts to derail DOL's regulations do not help workers struggling to get by, create safer workplaces, or promote equal opportunity in employment.    The men and women teetering on the brink of poverty, people making $23,660 a year, who are asked to work 50, 60, or 70 hours a week with no promise of extra pay, are not helped by efforts to block DOL's rule to extend overtime protection to 5 million working Americans.    The nearly 2.1 million workers exposed to silica and at risk of contracting potentially lethal silicosis are not made safer by efforts to block full implementation of DOL's crystalline silica dust rule.    Expectant mothers who want nothing more than the ability to work and save for their new additions are not comforted by efforts to impede EEOC's work to address pregnancy discrimination in the workplace.    Americans are no longer persuaded by some of the offered justifications for attempts to block regulations designed to protect workers. It is hard to argue the Department of Labor's regulatory agenda is causing historic job loss when we are in fact in the midst of the longest streak of job growth on record. Our economy has added over 13.7 million jobs over 69 straight months, and we are seeing the lowest unemployment rate since April 2008.    These questionable arguments for blocking DOL's rules must make us question the purpose of our pursuits.    If there is genuine concern for workers, as well as businesses, then support a working families agenda that boosts wages, so more Americans are economically secure and have the increased spending power that supports job creating consumer demand. Take up a vote on a working families agenda that promotes the strong work/family balance needed for productive workers. Pass a working families agenda that promotes the equal employment opportunity that is linked to increased profitability and ensures all workers have a fair shot at success.    I must remind my colleagues that the department's purpose as well as our own is singular and clearly defined, the welfare of working people. It is this purpose that we must look to when judging DOL's actions as well as our own. We are the Workforce Protections Subcommittee. We must protect the workforce.    I look forward to hearing from the witnesses and what we can do to support DOL's efforts to promote the welfare of working people.    To the witnesses, I have read your statements. I want to work with you and do what we can to support DOL's efforts to promote the welfare of working people.    Very shortly, in Emancipation Hall at 11:00 a.m., members of the Congressional Black Caucus and House and Senate leadership will commemorate the 150th anniversary of the ratification of the 13th Amendment to the United States Constitution, which abolished slavery in the United States. The very slaves who built the United States Capitol.    Thousands fell to their death trying to erect the dome. They slept outside in the snow while laying the marble floors and columns. The ultimate workforce on whose shoulders we stand. They never had or received any protection. There was no Department of Labor, no Workforce Protections Subcommittee.    We cannot turn back. We have made so much progress. Let us vow to protect our present workers. After all, we are the Workforce Protections Committee, and I want to be proud of our work as we protect our workers.    I want to thank Representative Pocan for substituting for me. I have to attend the ceremony, and I yield back my time.</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Walberg. I thank the gentlelady and I thank you for reminding us of this celebration today and the 13th Amendment and the impact.    Pursuant to Committee Rule 7(c), all subcommittee members will be permitted to submit written statements to be included in the permanent hearing record, and without objection, the hearing record will remain open for 14 days to allow statements, questions for the record, and other extraneous material referenced during the hearing to be submitted in the official hearing record.    It is now my pleasure to introduce today's witnesses. Mr. Sam Batkins is director of regulatory policy at the American Action Forum here in Washington, D.C.    Prior to joining AAF, Mr. Batkins worked at the U.S. Chamber of Commerce, Institute for Legal Reform, and the National Taxpayers Union. His work has focused on lawsuit abuse, tort reform, federal regulation, and state and federal spending.    Mr. Ralph Beebe is president of Highland Engineering, Inc. in Howell, Michigan. It is good to see a Michiganian here. That is just kind of a personal side line between us, right?    He is testifying on behalf of the National Federation of Independent Business. Highland Engineering manufactures troop support equipment and contracts with all branches of the Department of Defense, as well as the Federal Emergency Management Agency, and foreign militaries.    In addition to its DOD work, HEI works with commercial customers in automation and water treatment areas.    Ms. Christine Owens is executive director of the National Employment Law Project in Washington, D.C. Prior to working with the National Employment Law Project, she worked at the AFL-CIO as a senior policy analyst specializing in workplace equity issues. Much of her work has focused on minimum wage and living wage hikes, pay equity, and state unemployment insurance coverage expansions.    Mr. Bradford Hammock is a shareholder and co-leader of the Workplace Safety and Health Practice Group for Jackson Lewis in Reston, Virginia. Prior to this, Mr. Hammock served as an attorney at OSHA, working on regulatory initiatives, compliance assistance, and enforcement policies.    I welcome you all, and as is the policy in this Committee, we would ask you now to rise and raise your right hand.    [Witnesses sworn.]</t>
   </si>
   <si>
@@ -110,6 +131,9 @@
   </si>
   <si>
     <t>412317</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Thompson</t>
@@ -653,7 +677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,7 +685,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -686,1803 +710,1972 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s"/>
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
       <c r="I5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s"/>
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
       <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" t="s"/>
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
       <c r="I9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G11" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" t="s"/>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
       <c r="I11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="H14" t="s">
+        <v>40</v>
+      </c>
       <c r="I14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" t="s">
-        <v>32</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="H16" t="s">
+        <v>40</v>
+      </c>
       <c r="I16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" t="s">
-        <v>32</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="G20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="H20" t="s">
+        <v>49</v>
+      </c>
       <c r="I20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" t="s">
-        <v>41</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="G24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="H24" t="s">
+        <v>56</v>
+      </c>
       <c r="I24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" t="s">
-        <v>48</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>49</v>
-      </c>
-      <c r="I25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="G26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="H26" t="s">
+        <v>56</v>
+      </c>
       <c r="I26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" t="s">
-        <v>48</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>49</v>
-      </c>
-      <c r="I27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="G28" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="H28" t="s">
+        <v>56</v>
+      </c>
       <c r="I28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" t="s">
-        <v>48</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
-      </c>
-      <c r="I29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="I30" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="G32" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="H32" t="s">
+        <v>67</v>
+      </c>
       <c r="I32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" t="s">
-        <v>59</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>42</v>
-      </c>
-      <c r="I33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="G34" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="H34" t="s">
+        <v>67</v>
+      </c>
       <c r="I34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
-      </c>
-      <c r="G35" t="s">
-        <v>59</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>42</v>
-      </c>
-      <c r="I35" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="G36" t="s">
-        <v>25</v>
-      </c>
-      <c r="H36" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="H36" t="s">
+        <v>67</v>
+      </c>
       <c r="I36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>58</v>
-      </c>
-      <c r="G37" t="s">
-        <v>59</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="G38" t="s">
-        <v>25</v>
-      </c>
-      <c r="H38" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="H38" t="s">
+        <v>67</v>
+      </c>
       <c r="I38" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
-      </c>
-      <c r="G39" t="s">
-        <v>59</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>42</v>
-      </c>
-      <c r="I39" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I40" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>22</v>
-      </c>
-      <c r="H41" t="s"/>
+        <v>14</v>
+      </c>
+      <c r="H41" t="s">
+        <v>15</v>
+      </c>
       <c r="I41" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" t="s">
-        <v>13</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>14</v>
-      </c>
-      <c r="I42" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>22</v>
-      </c>
-      <c r="H43" t="s"/>
+        <v>14</v>
+      </c>
+      <c r="H43" t="s">
+        <v>15</v>
+      </c>
       <c r="I43" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" t="s">
-        <v>13</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>14</v>
-      </c>
-      <c r="I44" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" t="s"/>
+        <v>14</v>
+      </c>
+      <c r="H45" t="s">
+        <v>15</v>
+      </c>
       <c r="I45" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" t="s">
-        <v>13</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>14</v>
-      </c>
-      <c r="I46" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>22</v>
-      </c>
-      <c r="H47" t="s"/>
+        <v>14</v>
+      </c>
+      <c r="H47" t="s">
+        <v>15</v>
+      </c>
       <c r="I47" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" t="s">
-        <v>13</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>14</v>
-      </c>
-      <c r="I48" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>28</v>
-      </c>
-      <c r="H49" t="s"/>
+        <v>14</v>
+      </c>
+      <c r="H49" t="s">
+        <v>15</v>
+      </c>
       <c r="I49" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" t="s">
-        <v>13</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>14</v>
-      </c>
-      <c r="I50" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>19</v>
-      </c>
-      <c r="H51" t="s"/>
+        <v>14</v>
+      </c>
+      <c r="H51" t="s">
+        <v>15</v>
+      </c>
       <c r="I51" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" t="s">
-        <v>13</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>14</v>
-      </c>
-      <c r="I52" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>82</v>
-      </c>
-      <c r="H53" t="s"/>
+        <v>14</v>
+      </c>
+      <c r="H53" t="s">
+        <v>15</v>
+      </c>
       <c r="I53" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s">
-        <v>25</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>90</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>82</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" t="s">
-        <v>13</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>14</v>
-      </c>
-      <c r="I56" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>90</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>87</v>
-      </c>
-      <c r="H57" t="s"/>
+        <v>14</v>
+      </c>
+      <c r="H57" t="s">
+        <v>15</v>
+      </c>
       <c r="I57" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s">
-        <v>25</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>95</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s">
-        <v>87</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>32</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s">
-        <v>25</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>95</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s">
-        <v>87</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>32</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s">
-        <v>25</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>95</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" t="s">
-        <v>13</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>14</v>
-      </c>
-      <c r="I63" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J64" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G65" t="s">
+        <v>39</v>
+      </c>
+      <c r="H65" t="s">
+        <v>49</v>
+      </c>
+      <c r="I65" t="s">
+        <v>50</v>
+      </c>
+      <c r="J65" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" t="s">
         <v>13</v>
       </c>
-      <c r="H65" t="s">
+      <c r="G66" t="s">
         <v>14</v>
       </c>
-      <c r="I65" t="s">
-        <v>96</v>
+      <c r="H66" t="s">
+        <v>15</v>
+      </c>
+      <c r="I66" t="s">
+        <v>16</v>
+      </c>
+      <c r="J66" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
